--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/11_Aydın_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/11_Aydın_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D7D8B1-D084-4F96-9457-3769F0A0B55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412EDD23-7985-453C-BAB1-5D7BA2D7A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{92FBF8F1-DDAF-420D-B6B4-4D44F4F9CF60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{2E86D63D-94C7-4BAE-97A2-A3FDAAF672B2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="92" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0EC3C5B9-B553-4BC7-90BB-0C9A2437CC74}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ECEC0970-2B1F-4417-A338-471D852E02A2}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{760407B2-0917-4837-9A71-BB0BA1A4029B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7F6FE84A-6C17-46E6-89C3-E8B881621690}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{45AE7B57-CF5D-42E1-BA76-EFF431E193DF}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A3336DBB-9DA0-426B-898D-B75E46BCB446}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F8092B6C-3EFC-4121-89F9-00B0F50A27C7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{851AFEC6-6784-4CED-8D42-1CDC37F9451D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C05BC126-94C8-4738-B423-06ABBAACBB1D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{427706BE-F68E-465B-B53E-26E5EA4A56EE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7ED427BF-2C8C-4178-96F5-7C8BF785A08C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A7581BA5-FD24-46EF-B600-6EE6EA4AB8A6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0B842445-05E8-4182-B9C9-2713171CD191}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F04B0EEE-1012-49C2-AAE4-B2FC65567ECD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3642B3-DF1A-4BFF-9B4D-7DE7CCBF5E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFCB680-38DF-4178-8BA2-B90E27994D36}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2574,17 +2574,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC03947B-D25A-4565-971A-C3F834B197C4}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{69AC303A-8DC8-433E-9D4F-2D635572811B}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{3B74CC4C-1188-48CB-BCFF-34A8E09F7E8B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2074D89A-ABCF-440D-BDBA-7F5505E7CE50}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62632EA9-161E-4331-A5E3-DB1824DFE14D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{486AE446-7B1E-4BDE-9E98-D2EAD8A723B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{843EBE55-D5F7-45F5-86C0-C005ACA849E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17A29BDD-1984-4935-8CCB-EECCF839AA20}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{999A3B29-D12F-4BCC-8AAA-A11B5E518453}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0217B504-0D0A-4381-8D84-1AD5A57C1EC5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{516D3851-CCAA-4585-B92F-5D9AF76C9EF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B30B219-D346-4C36-B5A6-B2D16A892B26}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C879DF9F-7334-4829-AB54-4C95FD93668C}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{2592E67B-F07F-461E-98E2-78B97B03CC59}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{881EA8B7-2680-4A82-B50A-4B0A2B371362}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{027FEABA-4346-4EA6-83CA-679F337A39B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3061645-D604-4BE6-82A7-A00DE4E5552F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07685BD5-2371-4ABB-A787-D64BEFC412DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53F0CCA8-5DFD-48E1-95E6-CF3BC70183BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ABDEAFD5-34EF-4491-A5C6-944702EBFE08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B8E054D-A763-4D8D-BF5C-FE734A9BDE50}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D7DEE20-5C4C-4E03-980F-3243EF8D815A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2597,7 +2597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF02D916-11B0-4979-A5B6-040CEC8861A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCCF059-114C-423F-B6C7-EC62B87665B5}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3843,17 +3843,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8ED1ABC4-BA66-4816-B365-7E0D01C3CC16}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AEE09B7B-2C27-4F94-9D1C-59D2F266393F}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{CCFD8D64-F120-4969-A3B3-5FE3EFB98104}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3375D6A-A5A0-4DC2-BC39-B475BC3A3544}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2DEDAAE-7705-40B2-BAF5-4106F08C220C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F7251CC-0C4D-4F90-A3C8-A845759A2E63}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1288E767-D34C-4FEB-91EA-241F55925E97}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01D83734-0F1E-406D-9D2A-779A4CB047EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{860EF198-13CD-4EB9-978C-01E35790A121}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA847A4E-CFC4-4F87-8FFB-362F83EBA4E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A7029EA-4CA3-40E2-976D-36E72C352D9B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E9ADF4E-C144-45A5-8F48-5E6C3A020026}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DA2286C5-24AF-4DFA-A6DC-DC3B18005931}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{59AB29B3-610E-4A43-8F7C-B5F5F0869AFF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{135E9D97-DC1D-4DBE-87F6-7E6918C5BB43}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E508C37D-2F72-47FA-B9DD-90C733A66743}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F6D7928-E623-450E-92D1-A48F384EF365}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B3DD6CF-2534-4059-9D44-7D2F5394F8EB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D87F8CB-62CC-4899-926A-AA135FB61571}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FE66D9A-A0C5-405B-A3B2-0BF4B64A49FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9868A1DA-D14A-4D6C-B82A-9843A827FE04}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98A2DE6E-5053-4CF4-951C-A78800E1E902}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3866,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B401EE-39EB-4CAA-AD5F-BC937CBF0E94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB05E6D-98F7-4CEE-9759-69628F1CA9EB}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5112,17 +5112,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C56D44FC-02FD-4875-BB4C-709E7E0715C3}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6F1C5930-A4EC-421A-A550-07872CAA8C50}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{83625654-76DD-4B85-94B5-C0DC2CCCF153}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A536A0A-CBE8-4D8A-A25E-397F3ABA68E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22C92B29-2446-4A48-9AF8-A077909261FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87135491-9D16-4CAA-A21B-EF53DA282CFB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6803502B-A456-478B-8176-818A5F80CEEE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AE21E2B-7578-4BB1-A247-EC063DC71F12}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6247AC60-636F-4D31-AA67-2E8BBE23070F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C446870-9369-41D3-82FD-BB6037B936CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76BE7A82-DF05-45CA-B37B-F06A6AEAB667}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{767D38DD-0901-48E0-A8EC-DF277A2BFB73}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DDA94D78-284C-42F0-B5C5-EBCAEE53C757}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{5F1988D6-4373-4E2D-9C15-24DF92CCB4D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10E77080-C9AB-4F0D-BCD4-0408AF380263}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1D13BCA-953F-49C9-AE10-C31E706E8EA9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{179D59B3-59FA-407B-A7F4-0EC2B1BF236F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B9790B9-1F53-43C4-A3EA-39FE15011387}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFD6B79F-D7C4-4BD6-9C15-DA753344FA77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B1182DD-FC00-4873-8145-E6BC8B2D3636}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{515AF2E1-E57D-44CB-BEC7-98493DBA3D2C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B897E13D-0A61-4084-8F28-E4B9B924D8E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5135,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974BC23E-8CB5-47F9-A687-3DED62256791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC41763-1474-4551-89C4-BC3E8A25AB80}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6377,18 +6377,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C6EADD4-3947-4B4D-B615-8AB9A33F99A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C99B5D5-C8A5-4A75-9A40-1885F5B23FA0}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1B7462BA-9389-47B0-9FFC-58C51C84C89E}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{9D698A45-9A34-4305-8A0F-33AF371488D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8883DAA7-1943-4158-B164-4B62745FF930}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CED99BA6-DE5C-4A62-AABF-8F67A8B5C032}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DBBCE0F-E7D0-455B-B7F5-0B1D0B7A2F8A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{520C873D-8D86-49AC-9201-55419A11A31E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDC15290-123A-4F9D-A2EE-24D9DCB56DB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE22C758-51EE-4EFD-8F88-EB01CDEC2762}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9635ED9-C3D5-44CD-B3F2-A35BFA43431B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4FCF629-069C-40AC-BAD6-07DC766293FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A734224E-8B2A-4FD7-9A3C-0ADA03233F4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{279DE896-C16E-4EA5-86E0-2710BC1DE09B}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6D2048A0-5208-49A3-B918-113F95CA8A12}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{C6E860CC-988E-4A62-862A-B07E02004372}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A327C16-64AF-4A37-8A05-BE0D9013A203}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B308AA6-3E20-4C54-9458-1FE79AA9F24A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD16120C-3A25-4680-9413-C3400DC8E9A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD515274-25B5-405C-A4F5-E4BFDCD66AC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD7ADF0D-187C-480B-9F85-AFDC4B7369FB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB1B1BEC-C341-4502-A1BB-E5FE641DF264}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2FD1F68-9D44-4639-A6D6-77F6A4D3DF32}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2DD11B5B-D593-441A-A9F5-C8F5C5B21DAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6401,7 +6401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29E4E0B-6AF1-42F0-88DE-BAF5E4333AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE94AFC-D021-4C2A-8175-517E04B67EB7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7666,17 +7666,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9ACFFE1-2B67-450F-804B-8914C09CC839}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C44BFEC4-7311-4274-925E-EAA3D31274D8}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{4CD6A08D-9114-4773-809A-380755D6E53C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB217D08-CB4D-45E1-BC2C-DFD325262429}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0A58FFB-E827-4E0A-9D0C-F482B7B23231}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7191DF88-11A8-49C7-B573-75CDACAF3C2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C161F55A-9A8A-4D8C-96F0-3296F8690B5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13535342-04BD-4B11-BE09-889579224DCF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62181B24-D885-44CA-8BE0-2C99C05DD852}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30D487BE-55A8-473E-9650-8CBDC5BCAC2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B70B2DB1-3A80-4C05-AA8F-9EDC0A1F8A5E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C38CEEF7-1A5D-43DC-87A4-74298B264F71}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E0A18B66-8FB3-4903-810C-1F6808E923AC}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{C4C20CF3-A8B9-4DB4-999B-0C1482ECB5BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F62113C-77E1-4892-97E1-DE867DB62BAE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C3DAEF3-B7CB-4B7A-83F3-88C0C362EE6B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AF86ECB-7A86-4008-A40F-238EDF7007FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D849821-7D93-4274-8E70-E0853DB64356}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2C7ADD2-BEAF-4505-983F-1AF4C2167FA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{422DF60C-9611-49C3-B1FF-6D423D42CF90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5823A741-A63B-4E99-B6FD-6C75C6D932F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C7662B9-1924-4DC5-9801-307972D68218}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7689,7 +7689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5340D92B-4466-4BF0-AC18-E03C2ADDE95B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3DA5FA-0A37-4CA7-B7B0-BC6BC1F864C5}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8951,17 +8951,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9330F502-63BE-446D-B124-5DE6B71097EA}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{337245D2-CCA4-4848-AD0A-3E8670F513A1}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{6CD8C5EB-2963-4D01-ACB3-84B840C954AA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6EC58A4-71EF-4C5E-B48A-31E2A06C3E49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E9EEB42-CFDE-4565-8645-8DB2393C4256}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1601E4E-F118-4D67-BC6F-60B4D50099CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7298ED74-B186-4248-AA2F-57A34528CBA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88709E87-485A-4BA6-AB36-941618E4CBC2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0DCCD99E-701E-44C1-9A7C-C84F836E2BC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{410D8BC1-47E1-4872-8CB4-92E265357032}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAA353FE-7D7E-4103-8FA5-440706C09031}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94A4F358-9A76-4B16-A823-07D57A85D452}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B1F350CE-A06B-4E21-9DCB-757BCFE4C466}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{0BF16B11-3297-4A66-8AFA-A142D87B2E9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA1A42E5-1D14-4895-918B-768AF9AE4654}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FAECBFB4-BF68-449A-B69E-94A341CBB24B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2490C3C9-72CA-4B3A-9739-B80EDA96285A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{167953B4-AA0F-4E3D-A089-49E86BD1C7D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4921C72C-D11D-41B6-81C7-F4DB9FA1E272}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{33B95995-32B4-447C-9727-1E2D7578DA90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{903F247E-273F-444F-B6E3-A5552FE8AE70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4706D42C-AE5D-4794-9145-2327B2798765}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8974,7 +8974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49894E47-F4F2-4AF5-8FA1-0AF7856F5CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4699FB-1EDA-493F-9F84-32A8EFD81805}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10236,17 +10236,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{316AFFC8-981E-4270-82BA-1401DBF3A800}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6E9336D8-D169-4BC7-9184-67C3FA2C0BA0}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{238EE86E-3688-4D1F-9FEC-06E589F11C79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7647764C-E33B-475F-AE93-1C6D24AE507B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2A36754-DAE7-49FF-8570-84CC53BF54DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A800D572-005D-4C6C-A865-A5145710D3A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D835F946-6147-4C14-9ED8-39CF78D95161}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01F7059A-BD45-489F-BCAE-287EBBDE31A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5E35CB8-2003-4A64-B3EC-119AF26D1AB2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9AD73E6-7202-4523-A711-5306D185289B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DE268D1-7E16-423D-B569-03A71AF3781C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EA7B2D8-127A-4844-8464-D01053F350E3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{98B047DC-11D0-4714-BCC6-4461D7F17943}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{B58F3D68-210F-423E-8217-A208D2D073CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4B66A01-07FF-4569-81A0-FFFB066411E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{050EF26E-FE3E-4A65-B780-0601EC724F8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9FCB4B7E-86B6-4EDE-929A-9F1E5E10ABF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34E8C1F8-63F2-4EA2-8E89-96BAE6EA113A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AAAA178-6DDF-4CF8-8EB7-064ABB1D660A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84022486-45C4-406A-B79D-E270A335C321}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20E119A7-343B-481F-B8AE-4E3C77C1789D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B7E179A-B034-4071-9304-38C2DDC627D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10259,7 +10259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C389B67-6EEA-4816-84E6-97A5E0A9C8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C40D395-6CC1-48DA-9CDD-B76451C9F241}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11521,17 +11521,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DA12D17-3412-47FB-8DAD-62C8B994FED5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{BC5551CE-7C2F-44DD-8948-DC6ACFF3B2D3}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{1644A61F-22E5-49D7-93EE-6A5164E77C39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BD41ED1-22CA-4B13-A2B9-EF67243A66EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85C97FA7-01FD-4A0C-9C28-1CB22BAB123F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F93391E8-1C06-4E85-B9C6-E8F1CD65B149}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E045940-C64C-4EF0-B67B-2C5571FF0BD8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43AF8E0D-741F-4319-B6BC-D64D5A119B2A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C8364B5-B23D-499D-8B36-285DCD36C3A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E514727E-B817-49CC-B472-D26ED0A8622B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F001EA1F-14F9-451F-A858-3C4FCDDBF711}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4378490-C722-4DBA-AD5A-210514264CE9}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1A2E9E7E-0D1F-4F58-A0C0-E1EDFE42D894}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{F610B4D7-9445-46E7-8AD7-C95BAB07F93F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD3D8F85-7276-4FE7-BD47-A03F633764A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20E3A83D-3115-4F6E-ABAF-41F9EBC29B56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78896838-23FB-4CF1-A5D9-68741FD77A39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAB52DB3-9C10-4B21-B73E-30550586F17B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF0EADB5-CD89-4C47-9D43-044DC552EF76}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4DAB999F-2A69-4F9C-A7CC-4A825551C442}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AB9119A-C194-46F8-B396-18F61AE82F16}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ECF3926E-9B3C-466C-A135-239B4900A5EF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11544,7 +11544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0614F7B-8F6F-4F96-88B3-52859BD1EEA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925D834-E35D-40BB-8B16-6ED23B2BAC8E}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12798,17 +12798,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A91AF0ED-A06A-47B9-881C-D6BE19E85B32}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8A8DF806-A971-4336-86DE-314FEC77F826}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{422B12FA-9956-4AE5-B6B1-67D1B43DA45E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27A44C25-7F36-41A3-9C22-202611A3475F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9642D1AB-9032-4057-9B3A-913B28B1DA3C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{588B1A90-7E13-45DB-A65C-CFF44FEE0CEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{473BBF36-B3D4-4084-B07D-1FB275B4218E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6ABC7493-5EBB-4F8D-BF57-40F9C74D6398}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1313509C-5293-4849-87B2-59D7922B6D9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2159F31-4245-44C7-B800-EBC9A5D40F87}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{580C9FC9-F3BA-498E-AC91-B7FDDF5780DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E7E5557-8A84-4282-AF58-902AB68BBB01}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6001E1EE-191A-4BC9-9F62-60059F01A85F}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{5BCC767D-DDD0-4327-BE00-183BF1DE25E6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D99925C5-3A56-453A-94FB-7D2B51F0CF42}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB25010B-5022-4B7A-AA8F-DA1F57126A5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85C605E2-5320-4C63-86EC-9F2B9C8A45BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{331215AC-A0AF-4D0B-A682-AE1DE429D23D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BD4B04D-051D-40F8-8B06-5040450AA141}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E53DB8F-7555-4E95-9B43-8E3006681D87}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3CB0CD2F-76E1-49E9-BFA6-2D2266108B55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E19DEFD5-1B3F-43D3-9679-1C53B949D289}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12821,7 +12821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48128142-D774-4838-8DA5-B621C2F9ABF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEC66C6-7481-4A1A-8044-ADE035CF8075}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14075,17 +14075,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0EA3520-ADD6-486F-B9BA-52896E411EFA}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0C688CFF-636F-4A57-BD0F-3A2D8375099F}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{5F909930-866B-49B5-9E30-B2E733C1F3F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54F94420-0160-4FED-803D-8BB3E63695BB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04A821AC-8AD3-47DA-B08B-3217B17A8E72}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3532819-26EB-4FE8-A620-4D38C7E3D994}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46E7D6C1-9189-4755-B309-E53FF9B96113}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E76CD94-AD43-4DFE-8321-B8C24A5287AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DDC3C61-90EB-4668-B4C4-CD3851404A13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50740D3B-199F-4966-8CC8-79A07C234383}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F200B37-EFC0-47D8-8C93-5F43101A29A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9909B5E-EB26-4415-9C12-9C681D276567}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F2F01AB4-EC8A-4D88-B038-43895B3D7A28}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{ED6A4B6A-2E47-4A49-BD44-6E1D815AAE61}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A74F8EB2-EBFE-4C80-8068-91B32537DA19}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55B1F51B-5A92-4A9D-AF0D-34676FB8E5EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A971C16D-24F9-41D0-A500-921D5655DEBF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38EF7134-DF96-4CC3-9F24-BB8ECADF8115}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99FA6A88-99F4-496C-A65A-682B4FF6D0E1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E7552A8-2488-49E4-81E0-7C93C649846A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AEAB6EA4-6B95-47A0-A55E-97FAC318A528}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A473686-58DE-449B-AAE1-7860DCAD231B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14098,7 +14098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235C5B3B-B0D4-4A9A-BAF7-BF5DC9C8B5AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D421071-1EAB-4EB8-AD61-E129AD23094F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15352,17 +15352,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{452B998E-F727-451A-BEA8-F8BC6210A90B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2CC5B7FD-6D65-4413-B91D-DAAA7239466F}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{DC112F9E-FF89-4C25-91D2-BFFFAA8EFAB6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A4D1BB8-2978-4231-8EEB-7C97744723C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A5D727D-AD20-4444-A208-2B745712525A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8245087-4B31-4568-A115-96E516F6BA0C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF5E8CFC-6E37-4A53-ACD0-94B80F39CF6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1188544B-4B41-4C7F-AE70-947E3E741998}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDB14876-6077-4A6F-8F3A-568D2F66ED3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CBD8F38-CDB0-484A-9D8F-CE189CE7FC39}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08B1472A-FA9C-4748-9F12-AA7DCFCB0616}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEA87006-2A05-4E99-866E-B0897B9AB2CF}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B96B2675-08D0-4894-AC50-B1EEAFA19998}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{6C15BB0F-CB0C-485A-8EDD-50DE6C1385B1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95C3C1F0-900A-422B-A6DA-6B0855379F69}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D7CFF397-732A-4157-9310-062AF0D9D475}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{268D920D-6263-45C4-A367-E7DAF5FDEF98}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29AFF651-D023-473A-AE91-2E9300E6F07F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{125DABC1-8D88-441F-80D3-5E1BC33253F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E1B694F-1C05-4CEC-8F63-8C7C3A31CECB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{327022D6-8636-4EFD-BAC5-45525B3BF794}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD27AD5C-0A16-4A69-83C3-E2653D36A66D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15375,7 +15375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55285FD6-01F0-4DA2-8965-D08B1F48C417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA9DA95-9705-46CA-9F38-4146453EB0D2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16621,17 +16621,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76729D85-BB09-47B9-A27F-A936C6950C70}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{BAA6BCE1-B6EF-4328-B0B5-660D5CA7A808}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{86EC968A-1B67-4691-8658-CD2030BF7599}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD26D705-816F-4023-8DBF-22EF5FA314CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F23358B-4445-4948-B38E-A443876D7598}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60602DC2-606C-406C-8E00-A9D019D97D80}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6015160-169A-40E5-A78D-E5B183007B8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{592ABCFE-107A-4CCB-A19B-3558497FAA9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8964F420-573C-4D85-8BD0-892E9A926CC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E67B71E-82EB-4CAC-9078-69E01E889FD3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF8DF0B0-343F-451F-B0F4-E1EFC17B29BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65E17920-B8A4-48E2-A808-4F14AA54FC13}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3B43613E-4B38-49AD-82F2-98B99C8C4136}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{37DDED0F-A348-481E-B363-509DA144EC5B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3779AAD7-B0E6-4E7D-A899-485EEA24DF1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45C74D25-382E-4E19-A9BA-52BA9DD67498}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF0AF379-7E18-41E4-873E-8A7B357B4CDD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0EDE3EB-62B7-4CE8-92F3-9F45579F014E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24DACAD0-765D-43EB-97C5-8555DA489DCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BFB8A6C8-33BC-44C7-BD0F-32F74DFB52FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E6FB41E-73B6-4D44-937E-446D6DA95C86}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2ADBA4E2-094A-496C-8E05-DE793B83FBE7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
